--- a/medicine/Enfance/Prix_de_l'Oiseau_rouge/Prix_de_l'Oiseau_rouge.xlsx
+++ b/medicine/Enfance/Prix_de_l'Oiseau_rouge/Prix_de_l'Oiseau_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_de_l%27Oiseau_rouge</t>
+          <t>Prix_de_l'Oiseau_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix de l'Oiseau rouge (赤い鳥文学賞, Akai-Tori-Bungakushō?)[1]est un ancien prix japonais de littérature d'enfance et de jeunesse, décerné tous les ans de 1971 jusqu'en 2010 Sous les auspices de l'« Association de l'Oiseau rouge » en souvenir de l'écrivain pour la jeunesse Miekichi Suzuki[2]. Le prix est administré par l'éditeur Komine Shoten.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix de l'Oiseau rouge (赤い鳥文学賞, Akai-Tori-Bungakushō?)est un ancien prix japonais de littérature d'enfance et de jeunesse, décerné tous les ans de 1971 jusqu'en 2010 Sous les auspices de l'« Association de l'Oiseau rouge » en souvenir de l'écrivain pour la jeunesse Miekichi Suzuki. Le prix est administré par l'éditeur Komine Shoten.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_de_l%27Oiseau_rouge</t>
+          <t>Prix_de_l'Oiseau_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste des lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1971 Muku Hatojū pour Maya no isshō (マヤの一生) et pour Momo-chan to Akane (モモちゃんとあかね)
 1972 Junzō Shōno pour Akio to Ryōji (明夫と良二) et Seki Hideo  pour Shiroi chō no ki (白い蝶の記) et pour Chiisai kokoro no tabi (小さい心の旅)
@@ -533,11 +547,11 @@
 1988 Jun Okada pour Tobira no mukō no monogatari (扉のむこうの物語)
 1989 Hama Takaya pour Kaze sōdan o hashiru (風、草原をはしる)
 1990 Shūhei Hasagawa pour Mienai ehon (見えない絵本)
-1991 Tamiko Shimizu[3] pour Shimizu Tamiko shishū katatsumori no uta (清水たみ子詩集 かたつむりの詩)
+1991 Tamiko Shimizu pour Shimizu Tamiko shishū katatsumori no uta (清水たみ子詩集 かたつむりの詩)
 1992 Taichi Katō pour Tōku e iku kawa (遠くへいく川)
 1993 Sumiko Horiuchi pour Futari no aiko (ふたりの愛子)
 1994 Prix non attribué
-1995 Akito Ōsu[4] 大洲秋登 pour Domino taoshi (ドミノたおし)
+1995 Akito Ōsu 大洲秋登 pour Domino taoshi (ドミノたおし)
 1996 Shigeru Chaki pour Medaka no gakkō (めだかの学校)
 1997 Noriko Ogiwara pour Usubeni Tennyo (薄紅天女)
 1998 Tadaaki Mori pour Green Eyes (グリーン・アイズ, Gurīn aizu)
@@ -545,9 +559,9 @@
 2000 Yukiko Ninomiya pour Harinezumi no purupuru (ハリネズミのプルプル)
 2001 Yoshiko Hatashi pour Matasugu ni aeru kara shishū (またすぐに会えるから 詩集)
 2002 Chiyoko Okii  pour Sora yuku fune (空ゆく舟) (illustrations d'Ishikura Kinji)
-2003 Hisako Hirose pour Soshite kaeru wa tobu! (そして、カエルはとぶ！) (illustrations de Yōji Watanabe[5])
+2003 Hisako Hirose pour Soshite kaeru wa tobu! (そして、カエルはとぶ！) (illustrations de Yōji Watanabe)
 2004 Setsuo Hasegawa pour Ningyō no tabidachi (人形の旅立ち)
-2005 Kingyoku Ri[6],[Anm. 1] pour Ichido kieta mono wa shishū (いちど消えたものは 詩集)
+2005 Kingyoku Ri,[Anm. 1] pour Ichido kieta mono wa shishū (いちど消えたものは 詩集)
 2006 Hōko Takadono pour Watashitachi no bōshi (わたしたちの帽子)
 2007 Satoru Satō pour Honchō kidan Tengu dōji (本朝奇談 天狗童子)
 2008 Yoshiichi Takashi pour Tengu (天狗)
